--- a/project/DatabaseTables.xlsx
+++ b/project/DatabaseTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vikash\Hospital-Management-Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9F2AE-3BFA-46A3-B75F-38794F4F5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732CDD3-3982-450D-A654-981C6488E62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80D25240-4AFC-4227-AA70-7B489448DFE0}"/>
   </bookViews>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBFBCCE-F544-4EFA-AD02-7BFEEFE2F45C}">
   <dimension ref="A2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
